--- a/data.xlsx
+++ b/data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="41">
   <si>
     <t>age</t>
   </si>
@@ -133,6 +133,15 @@
   </si>
   <si>
     <t>Stderror=stddev/sqrt(samplesize)</t>
+  </si>
+  <si>
+    <t>ribbin_errors</t>
+  </si>
+  <si>
+    <t>ribbon_rating</t>
+  </si>
+  <si>
+    <t>cmap_rating</t>
   </si>
 </sst>
 </file>
@@ -548,8 +557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D82" sqref="D82"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="J86" sqref="J86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4202,6 +4211,10 @@
       <c r="A74" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="B74">
+        <f>AVERAGE(B2:B73)</f>
+        <v>1.2222222222222223</v>
+      </c>
       <c r="D74">
         <f>AVERAGE(D2:D73)</f>
         <v>4016.8553240740689</v>
@@ -4246,6 +4259,10 @@
       <c r="A75" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="B75">
+        <f>STDEV(B2:B73)</f>
+        <v>3.353460362167112</v>
+      </c>
       <c r="D75">
         <f>STDEV(D2:D73)</f>
         <v>3258.2069780493716</v>
@@ -4302,6 +4319,18 @@
       <c r="I77" t="s">
         <v>35</v>
       </c>
+      <c r="L77" t="s">
+        <v>38</v>
+      </c>
+      <c r="M77" t="s">
+        <v>15</v>
+      </c>
+      <c r="N77" t="s">
+        <v>39</v>
+      </c>
+      <c r="O77" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="78" spans="1:17">
       <c r="A78" t="s">
@@ -4331,6 +4360,22 @@
         <f>AVERAGE(I2:I73)</f>
         <v>3112.8738433441522</v>
       </c>
+      <c r="L78">
+        <f>AVERAGE(B2:B73)</f>
+        <v>1.2222222222222223</v>
+      </c>
+      <c r="M78">
+        <f>AVERAGE(P2:P73)</f>
+        <v>0.5</v>
+      </c>
+      <c r="N78">
+        <f>AVERAGE(N2:N73)</f>
+        <v>2.3611111111111112</v>
+      </c>
+      <c r="O78">
+        <f>AVERAGE(J2:J73)</f>
+        <v>2.25</v>
+      </c>
     </row>
     <row r="79" spans="1:17">
       <c r="A79" t="s">
@@ -4360,6 +4405,22 @@
         <f>STDEV(I2:I73)</f>
         <v>2667.4024650067895</v>
       </c>
+      <c r="L79">
+        <f>STDEV(B2:B73)</f>
+        <v>3.353460362167112</v>
+      </c>
+      <c r="M79">
+        <f>STDEV(P2:P73)</f>
+        <v>2.4437330021742336</v>
+      </c>
+      <c r="N79">
+        <f>STDEV(N2:N73)</f>
+        <v>0.923946763230033</v>
+      </c>
+      <c r="O79">
+        <f>STDEV(J2:J73)</f>
+        <v>1.0174533245341693</v>
+      </c>
     </row>
     <row r="80" spans="1:17">
       <c r="A80" t="s">
@@ -4370,8 +4431,12 @@
         <v>386.67802801482168</v>
       </c>
       <c r="C80">
-        <f t="shared" ref="C80:I80" si="2">C79/(71 ^ 0.5)</f>
+        <f t="shared" ref="C80:O80" si="2">C79/(71 ^ 0.5)</f>
         <v>196.59843137116437</v>
+      </c>
+      <c r="D80">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="E80">
         <f t="shared" si="2"/>
@@ -4381,6 +4446,10 @@
         <f t="shared" si="2"/>
         <v>212.15938367320601</v>
       </c>
+      <c r="G80">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="H80">
         <f t="shared" si="2"/>
         <v>880.99388524306403</v>
@@ -4388,6 +4457,22 @@
       <c r="I80">
         <f t="shared" si="2"/>
         <v>316.56243204911294</v>
+      </c>
+      <c r="L80">
+        <f t="shared" si="2"/>
+        <v>0.39798252493000447</v>
+      </c>
+      <c r="M80">
+        <f t="shared" si="2"/>
+        <v>0.29001775045033801</v>
+      </c>
+      <c r="N80">
+        <f t="shared" si="2"/>
+        <v>0.10965230717489821</v>
+      </c>
+      <c r="O80">
+        <f t="shared" si="2"/>
+        <v>0.12074949436255102</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1238,7 +1238,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B61" workbookViewId="0">
       <selection activeCell="N58" sqref="N58:O59"/>
     </sheetView>
   </sheetViews>
